--- a/Springboot-projects-repository.xlsx
+++ b/Springboot-projects-repository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathees-2024\Springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FE2C03-D2AF-4B75-90D0-0A794F87681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE0068-ECEA-4C7C-9247-B968482E6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="131">
   <si>
     <t>IDE</t>
   </si>
@@ -416,6 +416,40 @@
   </si>
   <si>
     <t>springboot-postgres-security-registration</t>
+  </si>
+  <si>
+    <t>Reactjs + Spring Boot CRUD Full Stack Application</t>
+  </si>
+  <si>
+    <t>React - JS, Springboot, REST, MySQL</t>
+  </si>
+  <si>
+    <t>D:\springboot-development\springbootreactmysql</t>
+  </si>
+  <si>
+    <t>springbootreactmysql</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>springboot-react-mysql-CURD</t>
+  </si>
+  <si>
+    <t>Reactjs + Spring Boot -User CURD integration without DB</t>
+  </si>
+  <si>
+    <t>React - JS, Springboot, REST</t>
+  </si>
+  <si>
+    <t>// React code - D:\react-development\react-springboot-sathees\my-test-get
+// Springboot code - D:\springboot-development\reactspringbootwebsevice</t>
+  </si>
+  <si>
+    <t>reactspringbootwebsevice</t>
+  </si>
+  <si>
+    <t>springboot-react-User-CURD</t>
   </si>
 </sst>
 </file>
@@ -498,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -518,11 +552,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -805,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,7 +1593,7 @@
       <c r="C15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1619,7 +1650,7 @@
       <c r="C16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1707,7 +1738,7 @@
       <c r="N17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="9" t="s">
         <v>111</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -1724,7 +1755,9 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>117</v>
       </c>
@@ -1764,7 +1797,7 @@
       <c r="N18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="9" t="s">
         <v>115</v>
       </c>
       <c r="P18" s="1"/>
@@ -1774,30 +1807,117 @@
       <c r="R18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="58.2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Springboot-projects-repository.xlsx
+++ b/Springboot-projects-repository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathees-2024\Springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE0068-ECEA-4C7C-9247-B968482E6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B8794C-763B-4641-83B5-52BA502BC792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="145">
   <si>
     <t>IDE</t>
   </si>
@@ -450,6 +450,61 @@
   </si>
   <si>
     <t>springboot-react-User-CURD</t>
+  </si>
+  <si>
+    <t>Reactjs + Spring Boot -User CURD integration with Postgres DB - Tutorials example</t>
+  </si>
+  <si>
+    <t>// React code - D:\react-development\react-springboot-sathees\my-test-get
+// Springboot code - D:\springboot-development\spring-boot-jpa-postgresql-master\spring-boot-jpa-postgresql-master</t>
+  </si>
+  <si>
+    <t>spring-boot-jpa-postgresql</t>
+  </si>
+  <si>
+    <t>springboot-react-postgres-tutorials</t>
+  </si>
+  <si>
+    <t>Springboot, REST,Postman,MySQL</t>
+  </si>
+  <si>
+    <t>Spring Boot Microservices Communication Example using RestTemplate with MySQL</t>
+  </si>
+  <si>
+    <t>D:\springboot-development-miroservices</t>
+  </si>
+  <si>
+    <t>springboot-Microservices-Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Boot Microservices: Building Microservices Application Using Spring Boot and Eureka Service
+</t>
+  </si>
+  <si>
+    <t>D:\springboot-development-eureka\</t>
+  </si>
+  <si>
+    <t>eurekaclient 
+EurekaServer
+item-Catalog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.           Eureka Server
+1.	Spring Boot Actuator
+2.	Eureka Discovery Client
+3.	Spring Data JPA
+4.	H2 Database
+5.	Rest Repositories
+6.	Spring Web
+7.	Spring boot Dev tools
+8.	Lombok
+</t>
+  </si>
+  <si>
+    <t>Springboot. Microservice, Eureka Service,Maven,REST, Postman</t>
+  </si>
+  <si>
+    <t>spring-boot--microservices-eureka</t>
   </si>
 </sst>
 </file>
@@ -836,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1919,6 +1974,155 @@
       </c>
       <c r="S20" s="3"/>
     </row>
+    <row r="21" spans="1:19" ht="72.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S23" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S12" r:id="rId1" display="http://localhost:8080/ - Welcome page -&gt; redirect to login page -&gt; submit -&gt; success or falure page._x000a_User name: user_x000a_password: password" xr:uid="{53061380-6DB7-418A-A83F-B7B4111D7D26}"/>
